--- a/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/VO/02- variation order for chilled water pipe insulation.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/VO/02- variation order for chilled water pipe insulation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B6C6BA-F8BF-4A7C-AAF5-89EA06F47B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC324EF2-4FBA-4321-A5CB-9DC394E929EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$50</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>S. #</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Material Rate</t>
   </si>
   <si>
-    <t>Labour Rate</t>
-  </si>
-  <si>
     <t>Total Rate</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Brand: PU</t>
   </si>
   <si>
-    <t>Over Head profit</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -108,6 +102,18 @@
   </si>
   <si>
     <t>Note: Suppliers' quotations attached.</t>
+  </si>
+  <si>
+    <t>Cladding</t>
+  </si>
+  <si>
+    <t>Wastage 10%</t>
+  </si>
+  <si>
+    <t>Cons Glue / Solvent 10%</t>
+  </si>
+  <si>
+    <t>Over Head profit 20%</t>
   </si>
 </sst>
 </file>
@@ -343,35 +349,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -395,13 +401,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>353060</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -456,13 +462,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>440690</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>161359</xdr:rowOff>
@@ -517,13 +523,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>267628</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>343218</xdr:rowOff>
@@ -849,54 +855,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:M49"/>
+  <dimension ref="A7:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="I12" s="9">
+    <row r="7" spans="1:11" ht="10.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="K12" s="9">
         <v>45618</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
     </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="25"/>
     </row>
-    <row r="15" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -906,35 +913,41 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -945,272 +958,329 @@
         <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="K20" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="31" t="s">
-        <v>12</v>
+      <c r="B21" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1463.1999999999998</v>
+      </c>
+      <c r="D23" s="15">
+        <v>600</v>
+      </c>
+      <c r="E23" s="15">
+        <f>SUM(C23+D23)*10%</f>
+        <v>206.32</v>
+      </c>
+      <c r="F23" s="15">
+        <f>SUM(C23+D23)*10%</f>
+        <v>206.32</v>
+      </c>
+      <c r="G23" s="15">
+        <f>SUM(C23:F23)*20%</f>
+        <v>495.16800000000006</v>
+      </c>
+      <c r="H23" s="16">
+        <f>SUM(C23:G23)</f>
+        <v>2971.0080000000003</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="14">
+        <v>1</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" ref="K23:K27" si="0">J23*H23</f>
+        <v>2971.0080000000003</v>
+      </c>
+      <c r="M23" s="7">
+        <v>6200</v>
+      </c>
+      <c r="N23" s="7">
+        <f>M23/5</f>
+        <v>1240</v>
+      </c>
+      <c r="O23" s="18">
+        <f>N23*1.18</f>
+        <v>1463.1999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="31">
+        <v>1858.5</v>
+      </c>
+      <c r="D24" s="15">
+        <v>650</v>
+      </c>
+      <c r="E24" s="15">
+        <f>SUM(C24+D24)*10%</f>
+        <v>250.85000000000002</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" ref="F24:F27" si="1">SUM(C24+D24)*10%</f>
+        <v>250.85000000000002</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" ref="G24:G27" si="2">SUM(C24:F24)*20%</f>
+        <v>602.04</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" ref="H24:H27" si="3">SUM(C24:G24)</f>
+        <v>3612.24</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="0"/>
+        <v>3612.24</v>
+      </c>
+      <c r="M24" s="7">
+        <v>7875</v>
+      </c>
+      <c r="N24" s="7">
+        <f>M24/5</f>
+        <v>1575</v>
+      </c>
+      <c r="O24" s="18">
+        <f>N24*1.18</f>
+        <v>1858.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="34">
-        <v>564.04</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" ref="F23:F27" si="0">E23+D23+C23</f>
-        <v>564.04</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="14">
+      <c r="B25" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="31">
+        <v>1982.3999999999999</v>
+      </c>
+      <c r="D25" s="15">
+        <v>700</v>
+      </c>
+      <c r="E25" s="15">
+        <f>SUM(C25+D25)*10%</f>
+        <v>268.23999999999995</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="1"/>
+        <v>268.23999999999995</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="2"/>
+        <v>643.77599999999984</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="3"/>
+        <v>3862.655999999999</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="14">
         <v>1</v>
       </c>
-      <c r="I23" s="15">
-        <f t="shared" ref="I23:I27" si="1">H23*F23</f>
-        <v>564.04</v>
-      </c>
-      <c r="K23" s="7">
-        <v>2390</v>
-      </c>
-      <c r="L23" s="7">
-        <f>K23/5</f>
-        <v>478</v>
-      </c>
-      <c r="M23" s="18">
-        <f>L23*1.18</f>
-        <v>564.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="K25" s="15">
+        <f t="shared" si="0"/>
+        <v>3862.655999999999</v>
+      </c>
+      <c r="M25" s="7">
+        <v>8400</v>
+      </c>
+      <c r="N25" s="7">
+        <f>M25/5</f>
+        <v>1680</v>
+      </c>
+      <c r="O25" s="18">
+        <f>N25*1.18</f>
+        <v>1982.3999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="34">
-        <v>643.1</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
+      <c r="B26" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="31">
+        <v>2128.7199999999998</v>
+      </c>
+      <c r="D26" s="15">
+        <v>725</v>
+      </c>
+      <c r="E26" s="15">
+        <f>SUM(C26+D26)*10%</f>
+        <v>285.37200000000001</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="1"/>
+        <v>285.37200000000001</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="2"/>
+        <v>684.89279999999997</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="3"/>
+        <v>4109.3567999999996</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1</v>
+      </c>
+      <c r="K26" s="15">
         <f t="shared" si="0"/>
-        <v>643.1</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="14">
+        <v>4109.3567999999996</v>
+      </c>
+      <c r="M26" s="7">
+        <v>9020</v>
+      </c>
+      <c r="N26" s="7">
+        <f>M26/5</f>
+        <v>1804</v>
+      </c>
+      <c r="O26" s="18">
+        <f>N26*1.18</f>
+        <v>2128.7199999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="31">
+        <v>2383.6</v>
+      </c>
+      <c r="D27" s="15">
+        <v>750</v>
+      </c>
+      <c r="E27" s="15">
+        <f>SUM(C27+D27)*10%</f>
+        <v>313.36</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="1"/>
+        <v>313.36</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="2"/>
+        <v>752.06400000000008</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="3"/>
+        <v>4512.384</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="14">
         <v>1</v>
       </c>
-      <c r="I24" s="15">
-        <f t="shared" si="1"/>
-        <v>643.1</v>
-      </c>
-      <c r="K24" s="7">
-        <v>2725</v>
-      </c>
-      <c r="L24" s="7">
-        <f>K24/5</f>
-        <v>545</v>
-      </c>
-      <c r="M24" s="18">
-        <f>L24*1.18</f>
-        <v>643.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="34">
-        <v>702.09999999999991</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16">
+      <c r="K27" s="15">
         <f t="shared" si="0"/>
-        <v>702.09999999999991</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="14">
-        <v>1</v>
-      </c>
-      <c r="I25" s="15">
-        <f t="shared" si="1"/>
-        <v>702.09999999999991</v>
-      </c>
-      <c r="K25" s="7">
-        <v>2975</v>
-      </c>
-      <c r="L25" s="7">
-        <f>K25/5</f>
-        <v>595</v>
-      </c>
-      <c r="M25" s="18">
-        <f>L25*1.18</f>
-        <v>702.09999999999991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="34">
-        <v>790.59999999999991</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <f t="shared" si="0"/>
-        <v>790.59999999999991</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="14">
-        <v>1</v>
-      </c>
-      <c r="I26" s="15">
-        <f t="shared" si="1"/>
-        <v>790.59999999999991</v>
-      </c>
-      <c r="K26" s="7">
-        <v>3350</v>
-      </c>
-      <c r="L26" s="7">
-        <f>K26/5</f>
-        <v>670</v>
-      </c>
-      <c r="M26" s="18">
-        <f>L26*1.18</f>
-        <v>790.59999999999991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="34">
-        <v>896.8</v>
-      </c>
-      <c r="D27" s="15">
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="16">
-        <f t="shared" si="0"/>
-        <v>896.8</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="14">
-        <v>1</v>
-      </c>
-      <c r="I27" s="15">
-        <f t="shared" si="1"/>
-        <v>896.8</v>
-      </c>
-      <c r="K27" s="7">
-        <v>3800</v>
-      </c>
-      <c r="L27" s="7">
-        <f>K27/5</f>
-        <v>760</v>
-      </c>
-      <c r="M27" s="18">
-        <f>L27*1.18</f>
-        <v>896.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
+        <v>4512.384</v>
+      </c>
+      <c r="M27" s="7">
+        <v>10100</v>
+      </c>
+      <c r="N27" s="7">
+        <f>M27/5</f>
+        <v>2020</v>
+      </c>
+      <c r="O27" s="18">
+        <f>N27*1.18</f>
+        <v>2383.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
-      <c r="I28" s="34"/>
-    </row>
-    <row r="29" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>0</v>
       </c>
@@ -1221,293 +1291,348 @@
         <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="I29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="J29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="K29" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
-      <c r="B30" s="31" t="s">
-        <v>22</v>
+      <c r="B30" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="15">
+        <v>560</v>
+      </c>
+      <c r="D32" s="15">
+        <v>600</v>
+      </c>
+      <c r="E32" s="15">
+        <f>SUM(C32+D32)*10%</f>
+        <v>116</v>
+      </c>
+      <c r="F32" s="15">
+        <f>SUM(C32+D32)*10%</f>
+        <v>116</v>
+      </c>
+      <c r="G32" s="15">
+        <f>SUM(C32:F32)*20%</f>
+        <v>278.40000000000003</v>
+      </c>
+      <c r="H32" s="16">
+        <f>SUM(C32:G32)</f>
+        <v>1670.4</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="14">
+        <v>1</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" ref="K32:K36" si="4">J32*H32</f>
+        <v>1670.4</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2390</v>
+      </c>
+      <c r="N32" s="7">
+        <f>M32/5</f>
+        <v>478</v>
+      </c>
+      <c r="O32" s="18">
+        <f>N32*1.18</f>
+        <v>564.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="15">
+        <v>610</v>
+      </c>
+      <c r="D33" s="15">
+        <v>650</v>
+      </c>
+      <c r="E33" s="15">
+        <f>SUM(C33+D33)*10%</f>
+        <v>126</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" ref="F33:F36" si="5">SUM(C33+D33)*10%</f>
+        <v>126</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" ref="G33:G36" si="6">SUM(C33:F33)*20%</f>
+        <v>302.40000000000003</v>
+      </c>
+      <c r="H33" s="16">
+        <f t="shared" ref="H33:H36" si="7">SUM(C33:G33)</f>
+        <v>1814.4</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="14">
+        <v>1</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="4"/>
+        <v>1814.4</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2725</v>
+      </c>
+      <c r="N33" s="7">
+        <f>M33/5</f>
+        <v>545</v>
+      </c>
+      <c r="O33" s="18">
+        <f>N33*1.18</f>
+        <v>643.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="15">
-        <v>415</v>
-      </c>
-      <c r="D32" s="15">
-        <v>0</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16">
-        <f t="shared" ref="F32:F36" si="2">E32+D32+C32</f>
-        <v>415</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="14">
+      <c r="B34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="15">
+        <v>665</v>
+      </c>
+      <c r="D34" s="15">
+        <v>700</v>
+      </c>
+      <c r="E34" s="15">
+        <f>SUM(C34+D34)*10%</f>
+        <v>136.5</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="5"/>
+        <v>136.5</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="6"/>
+        <v>327.60000000000002</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="7"/>
+        <v>1965.6</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="14">
         <v>1</v>
       </c>
-      <c r="I32" s="15">
-        <f t="shared" ref="I32:I36" si="3">H32*F32</f>
-        <v>415</v>
-      </c>
-      <c r="K32" s="7">
-        <v>2390</v>
-      </c>
-      <c r="L32" s="7">
-        <f>K32/5</f>
-        <v>478</v>
-      </c>
-      <c r="M32" s="18">
-        <f>L32*1.18</f>
-        <v>564.04</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="K34" s="15">
+        <f t="shared" si="4"/>
+        <v>1965.6</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2975</v>
+      </c>
+      <c r="N34" s="7">
+        <f>M34/5</f>
+        <v>595</v>
+      </c>
+      <c r="O34" s="18">
+        <f>N34*1.18</f>
+        <v>702.09999999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="15">
-        <v>440</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0</v>
-      </c>
-      <c r="F33" s="16">
-        <f t="shared" si="2"/>
-        <v>440</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="14">
+      <c r="B35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="15">
+        <v>690</v>
+      </c>
+      <c r="D35" s="15">
+        <v>725</v>
+      </c>
+      <c r="E35" s="15">
+        <f>SUM(C35+D35)*10%</f>
+        <v>141.5</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="5"/>
+        <v>141.5</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="6"/>
+        <v>339.6</v>
+      </c>
+      <c r="H35" s="16">
+        <f t="shared" si="7"/>
+        <v>2037.6</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="14">
         <v>1</v>
       </c>
-      <c r="I33" s="15">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="K33" s="7">
-        <v>2725</v>
-      </c>
-      <c r="L33" s="7">
-        <f>K33/5</f>
-        <v>545</v>
-      </c>
-      <c r="M33" s="18">
-        <f>L33*1.18</f>
-        <v>643.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="K35" s="15">
+        <f t="shared" si="4"/>
+        <v>2037.6</v>
+      </c>
+      <c r="M35" s="7">
+        <v>3350</v>
+      </c>
+      <c r="N35" s="7">
+        <f>M35/5</f>
+        <v>670</v>
+      </c>
+      <c r="O35" s="18">
+        <f>N35*1.18</f>
+        <v>790.59999999999991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="15">
-        <v>501</v>
-      </c>
-      <c r="D34" s="15">
-        <v>0</v>
-      </c>
-      <c r="E34" s="15">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16">
-        <f t="shared" si="2"/>
-        <v>501</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="14">
+      <c r="B36" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="15">
+        <v>785</v>
+      </c>
+      <c r="D36" s="15">
+        <v>750</v>
+      </c>
+      <c r="E36" s="15">
+        <f>SUM(C36+D36)*10%</f>
+        <v>153.5</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="5"/>
+        <v>153.5</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="6"/>
+        <v>368.40000000000003</v>
+      </c>
+      <c r="H36" s="16">
+        <f t="shared" si="7"/>
+        <v>2210.4</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="14">
         <v>1</v>
       </c>
-      <c r="I34" s="15">
-        <f t="shared" si="3"/>
-        <v>501</v>
-      </c>
-      <c r="K34" s="7">
-        <v>2975</v>
-      </c>
-      <c r="L34" s="7">
-        <f>K34/5</f>
-        <v>595</v>
-      </c>
-      <c r="M34" s="18">
-        <f>L34*1.18</f>
-        <v>702.09999999999991</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="15">
-        <v>544</v>
-      </c>
-      <c r="D35" s="15">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
-        <f t="shared" si="2"/>
-        <v>544</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="14">
-        <v>1</v>
-      </c>
-      <c r="I35" s="15">
-        <f t="shared" si="3"/>
-        <v>544</v>
-      </c>
-      <c r="K35" s="7">
-        <v>3350</v>
-      </c>
-      <c r="L35" s="7">
-        <f>K35/5</f>
-        <v>670</v>
-      </c>
-      <c r="M35" s="18">
-        <f>L35*1.18</f>
-        <v>790.59999999999991</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="15">
-        <v>592</v>
-      </c>
-      <c r="D36" s="15">
-        <v>0</v>
-      </c>
-      <c r="E36" s="15">
-        <v>0</v>
-      </c>
-      <c r="F36" s="16">
-        <f t="shared" si="2"/>
-        <v>592</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="14">
-        <v>1</v>
-      </c>
-      <c r="I36" s="15">
-        <f t="shared" si="3"/>
-        <v>592</v>
-      </c>
-      <c r="K36" s="7">
+      <c r="K36" s="15">
+        <f t="shared" si="4"/>
+        <v>2210.4</v>
+      </c>
+      <c r="M36" s="7">
         <v>3800</v>
       </c>
-      <c r="L36" s="7">
-        <f>K36/5</f>
+      <c r="N36" s="7">
+        <f>M36/5</f>
         <v>760</v>
       </c>
-      <c r="M36" s="18">
-        <f>L36*1.18</f>
+      <c r="O36" s="18">
+        <f>N36*1.18</f>
         <v>896.8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>29</v>
+    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
-        <v>21</v>
+    <row r="44" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
@@ -1516,9 +1641,11 @@
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
-    </row>
-    <row r="45" spans="1:13" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22"/>
+    </row>
+    <row r="45" spans="1:15" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="21"/>
@@ -1527,10 +1654,12 @@
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="22"/>
-      <c r="K45" s="18"/>
-    </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22"/>
+      <c r="M45" s="18"/>
+    </row>
+    <row r="46" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>5</v>
       </c>
@@ -1541,27 +1670,29 @@
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
-      <c r="I46" s="22"/>
-      <c r="K46" s="18"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K49" s="8"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="22"/>
+      <c r="M46" s="18"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A17:K17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/VO/02- variation order for chilled water pipe insulation.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/VO/02- variation order for chilled water pipe insulation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC324EF2-4FBA-4321-A5CB-9DC394E929EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C88314-FA35-498E-95F8-7496476D1C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$53</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>S. #</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Bilal Habib</t>
-  </si>
-  <si>
     <t>Material Rate</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>Project: Bank Al Habib Limited 12th Floor</t>
   </si>
   <si>
-    <t>Chilled water pipe Insualtion</t>
-  </si>
-  <si>
     <t>Brand: XLPE Aerofoam</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Polyurethane insulation (PU) on chilled water pipe.</t>
   </si>
   <si>
-    <t>For PIONEER SERVICES.</t>
-  </si>
-  <si>
     <t>Brand: PU</t>
   </si>
   <si>
@@ -104,16 +95,19 @@
     <t>Note: Suppliers' quotations attached.</t>
   </si>
   <si>
-    <t>Cladding</t>
-  </si>
-  <si>
-    <t>Wastage 10%</t>
-  </si>
-  <si>
-    <t>Cons Glue / Solvent 10%</t>
-  </si>
-  <si>
-    <t>Over Head profit 20%</t>
+    <t>Cladding (Material + labour)</t>
+  </si>
+  <si>
+    <t>Wastage 05%</t>
+  </si>
+  <si>
+    <t>Cons Glue / Tape 10%</t>
+  </si>
+  <si>
+    <t>Over Head profit 25%</t>
+  </si>
+  <si>
+    <t>Chilled water pipe Insulation</t>
   </si>
 </sst>
 </file>
@@ -464,13 +458,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>440690</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>161359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -525,14 +519,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>267628</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>343218</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133668</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -855,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:O49"/>
+  <dimension ref="A7:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +860,7 @@
     <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
     <col min="5" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" customWidth="1"/>
@@ -877,749 +871,735 @@
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:11" ht="10.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="K12" s="9">
-        <v>45618</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-    </row>
-    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+    <row r="12" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="K15" s="9">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="25"/>
-    </row>
-    <row r="15" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1463.1999999999998</v>
+      </c>
+      <c r="D26" s="15">
+        <v>600</v>
+      </c>
+      <c r="E26" s="15">
+        <f>SUM(C26+D26)*5%</f>
+        <v>103.16</v>
+      </c>
+      <c r="F26" s="15">
+        <f>SUM(C26+D26)*10%</f>
+        <v>206.32</v>
+      </c>
+      <c r="G26" s="15">
+        <f>SUM(C26:F26)*25%</f>
+        <v>593.16999999999996</v>
+      </c>
+      <c r="H26" s="16">
+        <f>SUM(C26:G26)</f>
+        <v>2965.85</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="14">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="13" t="s">
+      <c r="K26" s="15">
+        <f t="shared" ref="K26:K30" si="0">J26*H26</f>
+        <v>2965.85</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6200</v>
+      </c>
+      <c r="N26" s="7">
+        <f>M26/5</f>
+        <v>1240</v>
+      </c>
+      <c r="O26" s="18">
+        <f>N26*1.18</f>
+        <v>1463.1999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="30" t="s">
+      <c r="C27" s="31">
+        <v>1858.5</v>
+      </c>
+      <c r="D27" s="15">
+        <v>650</v>
+      </c>
+      <c r="E27" s="15">
+        <f>SUM(C27+D27)*5%</f>
+        <v>125.42500000000001</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" ref="F27:F30" si="1">SUM(C27+D27)*10%</f>
+        <v>250.85000000000002</v>
+      </c>
+      <c r="G27" s="15">
+        <f>SUM(C27:F27)*25%</f>
+        <v>721.19375000000002</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" ref="H27:H30" si="2">SUM(C27:G27)</f>
+        <v>3605.96875</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="14">
+        <v>1</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="0"/>
+        <v>3605.96875</v>
+      </c>
+      <c r="M27" s="7">
+        <v>7875</v>
+      </c>
+      <c r="N27" s="7">
+        <f>M27/5</f>
+        <v>1575</v>
+      </c>
+      <c r="O27" s="18">
+        <f>N27*1.18</f>
+        <v>1858.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="31">
-        <v>1463.1999999999998</v>
-      </c>
-      <c r="D23" s="15">
-        <v>600</v>
-      </c>
-      <c r="E23" s="15">
-        <f>SUM(C23+D23)*10%</f>
-        <v>206.32</v>
-      </c>
-      <c r="F23" s="15">
-        <f>SUM(C23+D23)*10%</f>
-        <v>206.32</v>
-      </c>
-      <c r="G23" s="15">
-        <f>SUM(C23:F23)*20%</f>
-        <v>495.16800000000006</v>
-      </c>
-      <c r="H23" s="16">
-        <f>SUM(C23:G23)</f>
-        <v>2971.0080000000003</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="14">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" ref="K23:K27" si="0">J23*H23</f>
-        <v>2971.0080000000003</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6200</v>
-      </c>
-      <c r="N23" s="7">
-        <f>M23/5</f>
-        <v>1240</v>
-      </c>
-      <c r="O23" s="18">
-        <f>N23*1.18</f>
-        <v>1463.1999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="31">
-        <v>1858.5</v>
-      </c>
-      <c r="D24" s="15">
-        <v>650</v>
-      </c>
-      <c r="E24" s="15">
-        <f>SUM(C24+D24)*10%</f>
-        <v>250.85000000000002</v>
-      </c>
-      <c r="F24" s="15">
-        <f t="shared" ref="F24:F27" si="1">SUM(C24+D24)*10%</f>
-        <v>250.85000000000002</v>
-      </c>
-      <c r="G24" s="15">
-        <f t="shared" ref="G24:G27" si="2">SUM(C24:F24)*20%</f>
-        <v>602.04</v>
-      </c>
-      <c r="H24" s="16">
-        <f t="shared" ref="H24:H27" si="3">SUM(C24:G24)</f>
-        <v>3612.24</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="14">
-        <v>1</v>
-      </c>
-      <c r="K24" s="15">
-        <f t="shared" si="0"/>
-        <v>3612.24</v>
-      </c>
-      <c r="M24" s="7">
-        <v>7875</v>
-      </c>
-      <c r="N24" s="7">
-        <f>M24/5</f>
-        <v>1575</v>
-      </c>
-      <c r="O24" s="18">
-        <f>N24*1.18</f>
-        <v>1858.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="31">
+      <c r="C28" s="31">
         <v>1982.3999999999999</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D28" s="15">
         <v>700</v>
       </c>
-      <c r="E25" s="15">
-        <f>SUM(C25+D25)*10%</f>
-        <v>268.23999999999995</v>
-      </c>
-      <c r="F25" s="15">
+      <c r="E28" s="15">
+        <f>SUM(C28+D28)*5%</f>
+        <v>134.11999999999998</v>
+      </c>
+      <c r="F28" s="15">
         <f t="shared" si="1"/>
         <v>268.23999999999995</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G28" s="15">
+        <f>SUM(C28:F28)*25%</f>
+        <v>771.18999999999983</v>
+      </c>
+      <c r="H28" s="16">
         <f t="shared" si="2"/>
-        <v>643.77599999999984</v>
-      </c>
-      <c r="H25" s="16">
-        <f t="shared" si="3"/>
-        <v>3862.655999999999</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="14">
+        <v>3855.9499999999989</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="14">
         <v>1</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K28" s="15">
         <f t="shared" si="0"/>
-        <v>3862.655999999999</v>
-      </c>
-      <c r="M25" s="7">
+        <v>3855.9499999999989</v>
+      </c>
+      <c r="M28" s="7">
         <v>8400</v>
       </c>
-      <c r="N25" s="7">
-        <f>M25/5</f>
+      <c r="N28" s="7">
+        <f>M28/5</f>
         <v>1680</v>
       </c>
-      <c r="O25" s="18">
-        <f>N25*1.18</f>
+      <c r="O28" s="18">
+        <f>N28*1.18</f>
         <v>1982.3999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="31">
+    <row r="29" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="31">
         <v>2128.7199999999998</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D29" s="15">
         <v>725</v>
       </c>
-      <c r="E26" s="15">
-        <f>SUM(C26+D26)*10%</f>
-        <v>285.37200000000001</v>
-      </c>
-      <c r="F26" s="15">
+      <c r="E29" s="15">
+        <f>SUM(C29+D29)*5%</f>
+        <v>142.68600000000001</v>
+      </c>
+      <c r="F29" s="15">
         <f t="shared" si="1"/>
         <v>285.37200000000001</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G29" s="15">
+        <f>SUM(C29:F29)*25%</f>
+        <v>820.44449999999995</v>
+      </c>
+      <c r="H29" s="16">
         <f t="shared" si="2"/>
-        <v>684.89279999999997</v>
-      </c>
-      <c r="H26" s="16">
-        <f t="shared" si="3"/>
-        <v>4109.3567999999996</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="14">
+        <v>4102.2224999999999</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="14">
         <v>1</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K29" s="15">
         <f t="shared" si="0"/>
-        <v>4109.3567999999996</v>
-      </c>
-      <c r="M26" s="7">
+        <v>4102.2224999999999</v>
+      </c>
+      <c r="M29" s="7">
         <v>9020</v>
       </c>
-      <c r="N26" s="7">
-        <f>M26/5</f>
+      <c r="N29" s="7">
+        <f>M29/5</f>
         <v>1804</v>
       </c>
-      <c r="O26" s="18">
-        <f>N26*1.18</f>
+      <c r="O29" s="18">
+        <f>N29*1.18</f>
         <v>2128.7199999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="31">
+    <row r="30" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="31">
         <v>2383.6</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D30" s="15">
         <v>750</v>
       </c>
-      <c r="E27" s="15">
-        <f>SUM(C27+D27)*10%</f>
-        <v>313.36</v>
-      </c>
-      <c r="F27" s="15">
+      <c r="E30" s="15">
+        <f>SUM(C30+D30)*5%</f>
+        <v>156.68</v>
+      </c>
+      <c r="F30" s="15">
         <f t="shared" si="1"/>
         <v>313.36</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G30" s="15">
+        <f>SUM(C30:F30)*25%</f>
+        <v>900.91</v>
+      </c>
+      <c r="H30" s="16">
         <f t="shared" si="2"/>
-        <v>752.06400000000008</v>
-      </c>
-      <c r="H27" s="16">
-        <f t="shared" si="3"/>
-        <v>4512.384</v>
-      </c>
-      <c r="I27" s="14" t="s">
+        <v>4504.55</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="14">
+        <v>1</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="0"/>
+        <v>4504.55</v>
+      </c>
+      <c r="M30" s="7">
+        <v>10100</v>
+      </c>
+      <c r="N30" s="7">
+        <f>M30/5</f>
+        <v>2020</v>
+      </c>
+      <c r="O30" s="18">
+        <f>N30*1.18</f>
+        <v>2383.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="31"/>
+    </row>
+    <row r="32" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="14">
-        <v>1</v>
-      </c>
-      <c r="K27" s="15">
-        <f t="shared" si="0"/>
-        <v>4512.384</v>
-      </c>
-      <c r="M27" s="7">
-        <v>10100</v>
-      </c>
-      <c r="N27" s="7">
-        <f>M27/5</f>
-        <v>2020</v>
-      </c>
-      <c r="O27" s="18">
-        <f>N27*1.18</f>
-        <v>2383.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:15" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="15">
-        <v>560</v>
-      </c>
-      <c r="D32" s="15">
-        <v>600</v>
-      </c>
-      <c r="E32" s="15">
-        <f>SUM(C32+D32)*10%</f>
-        <v>116</v>
-      </c>
-      <c r="F32" s="15">
-        <f>SUM(C32+D32)*10%</f>
-        <v>116</v>
-      </c>
-      <c r="G32" s="15">
-        <f>SUM(C32:F32)*20%</f>
-        <v>278.40000000000003</v>
-      </c>
-      <c r="H32" s="16">
-        <f>SUM(C32:G32)</f>
-        <v>1670.4</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="14">
-        <v>1</v>
-      </c>
-      <c r="K32" s="15">
-        <f t="shared" ref="K32:K36" si="4">J32*H32</f>
-        <v>1670.4</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2390</v>
-      </c>
-      <c r="N32" s="7">
-        <f>M32/5</f>
-        <v>478</v>
-      </c>
-      <c r="O32" s="18">
-        <f>N32*1.18</f>
-        <v>564.04</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="15">
-        <v>610</v>
-      </c>
-      <c r="D33" s="15">
-        <v>650</v>
-      </c>
-      <c r="E33" s="15">
-        <f>SUM(C33+D33)*10%</f>
-        <v>126</v>
-      </c>
-      <c r="F33" s="15">
-        <f t="shared" ref="F33:F36" si="5">SUM(C33+D33)*10%</f>
-        <v>126</v>
-      </c>
-      <c r="G33" s="15">
-        <f t="shared" ref="G33:G36" si="6">SUM(C33:F33)*20%</f>
-        <v>302.40000000000003</v>
-      </c>
-      <c r="H33" s="16">
-        <f t="shared" ref="H33:H36" si="7">SUM(C33:G33)</f>
-        <v>1814.4</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="14">
-        <v>1</v>
-      </c>
-      <c r="K33" s="15">
-        <f t="shared" si="4"/>
-        <v>1814.4</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2725</v>
-      </c>
-      <c r="N33" s="7">
-        <f>M33/5</f>
-        <v>545</v>
-      </c>
-      <c r="O33" s="18">
-        <f>N33*1.18</f>
-        <v>643.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
       <c r="B34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="15">
-        <v>665</v>
-      </c>
-      <c r="D34" s="15">
-        <v>700</v>
-      </c>
-      <c r="E34" s="15">
-        <f>SUM(C34+D34)*10%</f>
-        <v>136.5</v>
-      </c>
-      <c r="F34" s="15">
-        <f t="shared" si="5"/>
-        <v>136.5</v>
-      </c>
-      <c r="G34" s="15">
-        <f t="shared" si="6"/>
-        <v>327.60000000000002</v>
-      </c>
-      <c r="H34" s="16">
-        <f t="shared" si="7"/>
-        <v>1965.6</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="14">
-        <v>1</v>
-      </c>
-      <c r="K34" s="15">
-        <f t="shared" si="4"/>
-        <v>1965.6</v>
-      </c>
-      <c r="M34" s="7">
-        <v>2975</v>
-      </c>
-      <c r="N34" s="7">
-        <f>M34/5</f>
-        <v>595</v>
-      </c>
-      <c r="O34" s="18">
-        <f>N34*1.18</f>
-        <v>702.09999999999991</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="15">
+        <v>560</v>
+      </c>
+      <c r="D35" s="15">
+        <v>600</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" ref="E35:E39" si="3">SUM(C35+D35)*5%</f>
+        <v>58</v>
+      </c>
+      <c r="F35" s="15">
+        <f>SUM(C35+D35)*10%</f>
+        <v>116</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" ref="G35:G39" si="4">SUM(C35:F35)*25%</f>
+        <v>333.5</v>
+      </c>
+      <c r="H35" s="16">
+        <f>SUM(C35:G35)</f>
+        <v>1667.5</v>
+      </c>
+      <c r="I35" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C35" s="15">
-        <v>690</v>
-      </c>
-      <c r="D35" s="15">
-        <v>725</v>
-      </c>
-      <c r="E35" s="15">
-        <f>SUM(C35+D35)*10%</f>
-        <v>141.5</v>
-      </c>
-      <c r="F35" s="15">
-        <f t="shared" si="5"/>
-        <v>141.5</v>
-      </c>
-      <c r="G35" s="15">
-        <f t="shared" si="6"/>
-        <v>339.6</v>
-      </c>
-      <c r="H35" s="16">
-        <f t="shared" si="7"/>
-        <v>2037.6</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="J35" s="14">
         <v>1</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" si="4"/>
-        <v>2037.6</v>
+        <f t="shared" ref="K35:K39" si="5">J35*H35</f>
+        <v>1667.5</v>
       </c>
       <c r="M35" s="7">
-        <v>3350</v>
+        <v>2390</v>
       </c>
       <c r="N35" s="7">
         <f>M35/5</f>
-        <v>670</v>
+        <v>478</v>
       </c>
       <c r="O35" s="18">
         <f>N35*1.18</f>
-        <v>790.59999999999991</v>
+        <v>564.04</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C36" s="15">
-        <v>785</v>
+        <v>610</v>
       </c>
       <c r="D36" s="15">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E36" s="15">
-        <f>SUM(C36+D36)*10%</f>
-        <v>153.5</v>
+        <f t="shared" si="3"/>
+        <v>63</v>
       </c>
       <c r="F36" s="15">
-        <f t="shared" si="5"/>
-        <v>153.5</v>
+        <f t="shared" ref="F36:F39" si="6">SUM(C36+D36)*10%</f>
+        <v>126</v>
       </c>
       <c r="G36" s="15">
-        <f t="shared" si="6"/>
-        <v>368.40000000000003</v>
+        <f t="shared" si="4"/>
+        <v>362.25</v>
       </c>
       <c r="H36" s="16">
-        <f t="shared" si="7"/>
-        <v>2210.4</v>
+        <f t="shared" ref="H36:H39" si="7">SUM(C36:G36)</f>
+        <v>1811.25</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J36" s="14">
         <v>1</v>
       </c>
       <c r="K36" s="15">
-        <f t="shared" si="4"/>
-        <v>2210.4</v>
+        <f t="shared" si="5"/>
+        <v>1811.25</v>
       </c>
       <c r="M36" s="7">
-        <v>3800</v>
+        <v>2725</v>
       </c>
       <c r="N36" s="7">
         <f>M36/5</f>
-        <v>760</v>
+        <v>545</v>
       </c>
       <c r="O36" s="18">
         <f>N36*1.18</f>
+        <v>643.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="15">
+        <v>665</v>
+      </c>
+      <c r="D37" s="15">
+        <v>700</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="3"/>
+        <v>68.25</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="6"/>
+        <v>136.5</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="4"/>
+        <v>392.4375</v>
+      </c>
+      <c r="H37" s="16">
+        <f t="shared" si="7"/>
+        <v>1962.1875</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="14">
+        <v>1</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="5"/>
+        <v>1962.1875</v>
+      </c>
+      <c r="M37" s="7">
+        <v>2975</v>
+      </c>
+      <c r="N37" s="7">
+        <f>M37/5</f>
+        <v>595</v>
+      </c>
+      <c r="O37" s="18">
+        <f>N37*1.18</f>
+        <v>702.09999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="15">
+        <v>690</v>
+      </c>
+      <c r="D38" s="15">
+        <v>725</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="3"/>
+        <v>70.75</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="6"/>
+        <v>141.5</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="4"/>
+        <v>406.8125</v>
+      </c>
+      <c r="H38" s="16">
+        <f t="shared" si="7"/>
+        <v>2034.0625</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="14">
+        <v>1</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="5"/>
+        <v>2034.0625</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3350</v>
+      </c>
+      <c r="N38" s="7">
+        <f>M38/5</f>
+        <v>670</v>
+      </c>
+      <c r="O38" s="18">
+        <f>N38*1.18</f>
+        <v>790.59999999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="15">
+        <v>785</v>
+      </c>
+      <c r="D39" s="15">
+        <v>750</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" si="3"/>
+        <v>76.75</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="6"/>
+        <v>153.5</v>
+      </c>
+      <c r="G39" s="15">
+        <f t="shared" si="4"/>
+        <v>441.3125</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="7"/>
+        <v>2206.5625</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="14">
+        <v>1</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" si="5"/>
+        <v>2206.5625</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3800</v>
+      </c>
+      <c r="N39" s="7">
+        <f>M39/5</f>
+        <v>760</v>
+      </c>
+      <c r="O39" s="18">
+        <f>N39*1.18</f>
         <v>896.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
-        <v>27</v>
-      </c>
+    <row r="41" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
       <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,65 +1610,75 @@
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="22"/>
-    </row>
-    <row r="45" spans="1:15" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="22"/>
-      <c r="M45" s="18"/>
-    </row>
-    <row r="46" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="22"/>
-      <c r="M46" s="18"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M49" s="8"/>
+    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="33"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22"/>
+    </row>
+    <row r="48" spans="1:15" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22"/>
+      <c r="M48" s="18"/>
+    </row>
+    <row r="49" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="22"/>
+      <c r="M49" s="18"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/VO/02- variation order for chilled water pipe insulation.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/VO/02- variation order for chilled water pipe insulation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C88314-FA35-498E-95F8-7496476D1C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD860C3-588C-4863-9D78-51083FDE7EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$55</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>S. #</t>
   </si>
@@ -44,9 +44,6 @@
     <t>RATE ANALYSIS</t>
   </si>
   <si>
-    <t>Project: Bank Al Habib Limited 12th Floor</t>
-  </si>
-  <si>
     <t>Brand: XLPE Aerofoam</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>60mm dia</t>
   </si>
   <si>
-    <t>Rft</t>
-  </si>
-  <si>
     <t>Polyurethane insulation (PU) on chilled water pipe.</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>Note: Suppliers' quotations attached.</t>
   </si>
   <si>
-    <t>Cladding (Material + labour)</t>
-  </si>
-  <si>
     <t>Wastage 05%</t>
   </si>
   <si>
@@ -108,6 +99,12 @@
   </si>
   <si>
     <t>Chilled water pipe Insulation</t>
+  </si>
+  <si>
+    <t>Rm</t>
+  </si>
+  <si>
+    <t>Total Amount Rs</t>
   </si>
 </sst>
 </file>
@@ -118,7 +115,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +219,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -267,12 +280,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -355,9 +405,6 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -372,6 +419,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -395,14 +457,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>353060</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600710</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -456,16 +518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>440690</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>161359</xdr:rowOff>
+      <xdr:rowOff>66109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -517,16 +579,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>267628</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>296203</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>133668</xdr:rowOff>
+      <xdr:rowOff>590868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -549,7 +611,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9867900" y="5143500"/>
+          <a:off x="13735050" y="6267450"/>
           <a:ext cx="6649378" cy="2276793"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -849,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:O52"/>
+  <dimension ref="A7:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,37 +922,33 @@
     <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="K15" s="9">
-        <v>45629</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
-        <v>8</v>
-      </c>
+      <c r="A17" s="25"/>
       <c r="B17" s="25"/>
     </row>
     <row r="18" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -908,40 +966,37 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="A21" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
@@ -952,708 +1007,706 @@
         <v>5</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="G23" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="H23" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="I23" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:15" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:15" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="31">
+        <v>4799.2959999999994</v>
+      </c>
+      <c r="D26" s="15">
+        <f>SUM(C26)*5%</f>
+        <v>239.96479999999997</v>
+      </c>
+      <c r="E26" s="15">
+        <f>SUM(C26)*10%</f>
+        <v>479.92959999999994</v>
+      </c>
+      <c r="F26" s="15">
+        <f>SUM(C26:E26)*25%</f>
+        <v>1379.7975999999999</v>
+      </c>
+      <c r="G26" s="16">
+        <f>SUM(C26:F26)</f>
+        <v>6898.9879999999994</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="14">
+        <v>5</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" ref="J26:J30" si="0">I26*G26</f>
+        <v>34494.939999999995</v>
+      </c>
+      <c r="L26" s="7">
+        <v>6200</v>
+      </c>
+      <c r="M26" s="7">
+        <f>L26/5</f>
+        <v>1240</v>
+      </c>
+      <c r="N26" s="18">
+        <f>M26*1.18</f>
+        <v>1463.1999999999998</v>
+      </c>
+      <c r="O26" s="18">
+        <f>N26*3.28</f>
+        <v>4799.2959999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="31">
+        <v>6095.8799999999992</v>
+      </c>
+      <c r="D27" s="15">
+        <f>SUM(C27)*5%</f>
+        <v>304.79399999999998</v>
+      </c>
+      <c r="E27" s="15">
+        <f>SUM(C27)*10%</f>
+        <v>609.58799999999997</v>
+      </c>
+      <c r="F27" s="15">
+        <f>SUM(C27:E27)*25%</f>
+        <v>1752.5654999999997</v>
+      </c>
+      <c r="G27" s="16">
+        <f>SUM(C27:F27)</f>
+        <v>8762.8274999999994</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="0"/>
+        <v>8762.8274999999994</v>
+      </c>
+      <c r="L27" s="7">
+        <v>7875</v>
+      </c>
+      <c r="M27" s="7">
+        <f>L27/5</f>
+        <v>1575</v>
+      </c>
+      <c r="N27" s="18">
+        <f>M27*1.18</f>
+        <v>1858.5</v>
+      </c>
+      <c r="O27" s="18">
+        <f t="shared" ref="O27:O30" si="1">N27*3.28</f>
+        <v>6095.8799999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B28" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="31">
+        <v>6502.271999999999</v>
+      </c>
+      <c r="D28" s="15">
+        <f>SUM(C28)*5%</f>
+        <v>325.11359999999996</v>
+      </c>
+      <c r="E28" s="15">
+        <f>SUM(C28)*10%</f>
+        <v>650.22719999999993</v>
+      </c>
+      <c r="F28" s="15">
+        <f>SUM(C28:E28)*25%</f>
+        <v>1869.4031999999997</v>
+      </c>
+      <c r="G28" s="16">
+        <f>SUM(C28:F28)</f>
+        <v>9347.0159999999996</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="14">
+        <v>1</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="0"/>
+        <v>9347.0159999999996</v>
+      </c>
+      <c r="L28" s="7">
+        <v>8400</v>
+      </c>
+      <c r="M28" s="7">
+        <f>L28/5</f>
+        <v>1680</v>
+      </c>
+      <c r="N28" s="18">
+        <f>M28*1.18</f>
+        <v>1982.3999999999999</v>
+      </c>
+      <c r="O28" s="18">
+        <f t="shared" si="1"/>
+        <v>6502.271999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="31">
+        <v>6982.2015999999985</v>
+      </c>
+      <c r="D29" s="15">
+        <f>SUM(C29)*5%</f>
+        <v>349.11007999999993</v>
+      </c>
+      <c r="E29" s="15">
+        <f>SUM(C29)*10%</f>
+        <v>698.22015999999985</v>
+      </c>
+      <c r="F29" s="15">
+        <f>SUM(C29:E29)*25%</f>
+        <v>2007.3829599999997</v>
+      </c>
+      <c r="G29" s="16">
+        <f>SUM(C29:F29)</f>
+        <v>10036.914799999999</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="14">
+        <v>70</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="0"/>
+        <v>702584.03599999985</v>
+      </c>
+      <c r="L29" s="7">
+        <v>9020</v>
+      </c>
+      <c r="M29" s="7">
+        <f>L29/5</f>
+        <v>1804</v>
+      </c>
+      <c r="N29" s="18">
+        <f>M29*1.18</f>
+        <v>2128.7199999999998</v>
+      </c>
+      <c r="O29" s="18">
+        <f t="shared" si="1"/>
+        <v>6982.2015999999985</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="15">
+        <v>7818.2079999999996</v>
+      </c>
+      <c r="D30" s="15">
+        <f>SUM(C30)*5%</f>
+        <v>390.91039999999998</v>
+      </c>
+      <c r="E30" s="15">
+        <f>SUM(C30)*10%</f>
+        <v>781.82079999999996</v>
+      </c>
+      <c r="F30" s="15">
+        <f>SUM(C30:E30)*25%</f>
+        <v>2247.7347999999997</v>
+      </c>
+      <c r="G30" s="16">
+        <f>SUM(C30:F30)</f>
+        <v>11238.673999999999</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="14">
+        <v>15</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="0"/>
+        <v>168580.11</v>
+      </c>
+      <c r="L30" s="7">
+        <v>10100</v>
+      </c>
+      <c r="M30" s="7">
+        <f>L30/5</f>
+        <v>2020</v>
+      </c>
+      <c r="N30" s="18">
+        <f>M30*1.18</f>
+        <v>2383.6</v>
+      </c>
+      <c r="O30" s="18">
+        <f t="shared" si="1"/>
+        <v>7818.2079999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="40">
+        <f>SUM(J26:J30)</f>
+        <v>923768.92949999985</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+    </row>
+    <row r="33" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+    </row>
+    <row r="34" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:15" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1836.8</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" ref="D37:D41" si="2">SUM(C37)*5%</f>
+        <v>91.84</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" ref="E37:E41" si="3">SUM(C37)*10%</f>
+        <v>183.68</v>
+      </c>
+      <c r="F37" s="15">
+        <f>SUM(C37:E37)*25%</f>
+        <v>528.07999999999993</v>
+      </c>
+      <c r="G37" s="16">
+        <f>SUM(C37:F37)</f>
+        <v>2640.3999999999996</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="14">
+        <v>5</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" ref="J37:J41" si="4">I37*G37</f>
+        <v>13201.999999999998</v>
+      </c>
+      <c r="L37" s="7">
+        <v>560</v>
+      </c>
+      <c r="M37" s="7">
+        <f>L37*3.28</f>
+        <v>1836.8</v>
+      </c>
+      <c r="N37" s="18">
+        <f>M37*1.18</f>
+        <v>2167.424</v>
+      </c>
+      <c r="O37" s="18">
+        <f>N37*3.28</f>
+        <v>7109.1507199999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="31">
-        <v>1463.1999999999998</v>
-      </c>
-      <c r="D26" s="15">
-        <v>600</v>
-      </c>
-      <c r="E26" s="15">
-        <f>SUM(C26+D26)*5%</f>
-        <v>103.16</v>
-      </c>
-      <c r="F26" s="15">
-        <f>SUM(C26+D26)*10%</f>
-        <v>206.32</v>
-      </c>
-      <c r="G26" s="15">
-        <f>SUM(C26:F26)*25%</f>
-        <v>593.16999999999996</v>
-      </c>
-      <c r="H26" s="16">
-        <f>SUM(C26:G26)</f>
-        <v>2965.85</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="14">
-        <v>1</v>
-      </c>
-      <c r="K26" s="15">
-        <f t="shared" ref="K26:K30" si="0">J26*H26</f>
-        <v>2965.85</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6200</v>
-      </c>
-      <c r="N26" s="7">
-        <f>M26/5</f>
-        <v>1240</v>
-      </c>
-      <c r="O26" s="18">
-        <f>N26*1.18</f>
-        <v>1463.1999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="31">
-        <v>1858.5</v>
-      </c>
-      <c r="D27" s="15">
-        <v>650</v>
-      </c>
-      <c r="E27" s="15">
-        <f>SUM(C27+D27)*5%</f>
-        <v>125.42500000000001</v>
-      </c>
-      <c r="F27" s="15">
-        <f t="shared" ref="F27:F30" si="1">SUM(C27+D27)*10%</f>
-        <v>250.85000000000002</v>
-      </c>
-      <c r="G27" s="15">
-        <f>SUM(C27:F27)*25%</f>
-        <v>721.19375000000002</v>
-      </c>
-      <c r="H27" s="16">
-        <f t="shared" ref="H27:H30" si="2">SUM(C27:G27)</f>
-        <v>3605.96875</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="14">
-        <v>1</v>
-      </c>
-      <c r="K27" s="15">
-        <f t="shared" si="0"/>
-        <v>3605.96875</v>
-      </c>
-      <c r="M27" s="7">
-        <v>7875</v>
-      </c>
-      <c r="N27" s="7">
-        <f>M27/5</f>
-        <v>1575</v>
-      </c>
-      <c r="O27" s="18">
-        <f>N27*1.18</f>
-        <v>1858.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="31">
-        <v>1982.3999999999999</v>
-      </c>
-      <c r="D28" s="15">
-        <v>700</v>
-      </c>
-      <c r="E28" s="15">
-        <f>SUM(C28+D28)*5%</f>
-        <v>134.11999999999998</v>
-      </c>
-      <c r="F28" s="15">
-        <f t="shared" si="1"/>
-        <v>268.23999999999995</v>
-      </c>
-      <c r="G28" s="15">
-        <f>SUM(C28:F28)*25%</f>
-        <v>771.18999999999983</v>
-      </c>
-      <c r="H28" s="16">
+      <c r="C38" s="15">
+        <v>2000.8</v>
+      </c>
+      <c r="D38" s="15">
         <f t="shared" si="2"/>
-        <v>3855.9499999999989</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="14">
-        <v>1</v>
-      </c>
-      <c r="K28" s="15">
-        <f t="shared" si="0"/>
-        <v>3855.9499999999989</v>
-      </c>
-      <c r="M28" s="7">
-        <v>8400</v>
-      </c>
-      <c r="N28" s="7">
-        <f>M28/5</f>
-        <v>1680</v>
-      </c>
-      <c r="O28" s="18">
-        <f>N28*1.18</f>
-        <v>1982.3999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="31">
-        <v>2128.7199999999998</v>
-      </c>
-      <c r="D29" s="15">
-        <v>725</v>
-      </c>
-      <c r="E29" s="15">
-        <f>SUM(C29+D29)*5%</f>
-        <v>142.68600000000001</v>
-      </c>
-      <c r="F29" s="15">
-        <f t="shared" si="1"/>
-        <v>285.37200000000001</v>
-      </c>
-      <c r="G29" s="15">
-        <f>SUM(C29:F29)*25%</f>
-        <v>820.44449999999995</v>
-      </c>
-      <c r="H29" s="16">
-        <f t="shared" si="2"/>
-        <v>4102.2224999999999</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="14">
-        <v>1</v>
-      </c>
-      <c r="K29" s="15">
-        <f t="shared" si="0"/>
-        <v>4102.2224999999999</v>
-      </c>
-      <c r="M29" s="7">
-        <v>9020</v>
-      </c>
-      <c r="N29" s="7">
-        <f>M29/5</f>
-        <v>1804</v>
-      </c>
-      <c r="O29" s="18">
-        <f>N29*1.18</f>
-        <v>2128.7199999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="31">
-        <v>2383.6</v>
-      </c>
-      <c r="D30" s="15">
-        <v>750</v>
-      </c>
-      <c r="E30" s="15">
-        <f>SUM(C30+D30)*5%</f>
-        <v>156.68</v>
-      </c>
-      <c r="F30" s="15">
-        <f t="shared" si="1"/>
-        <v>313.36</v>
-      </c>
-      <c r="G30" s="15">
-        <f>SUM(C30:F30)*25%</f>
-        <v>900.91</v>
-      </c>
-      <c r="H30" s="16">
-        <f t="shared" si="2"/>
-        <v>4504.55</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="14">
-        <v>1</v>
-      </c>
-      <c r="K30" s="15">
-        <f t="shared" si="0"/>
-        <v>4504.55</v>
-      </c>
-      <c r="M30" s="7">
-        <v>10100</v>
-      </c>
-      <c r="N30" s="7">
-        <f>M30/5</f>
-        <v>2020</v>
-      </c>
-      <c r="O30" s="18">
-        <f>N30*1.18</f>
-        <v>2383.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="31"/>
-    </row>
-    <row r="32" spans="1:15" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="1:15" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15"/>
-    </row>
-    <row r="35" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="15">
-        <v>560</v>
-      </c>
-      <c r="D35" s="15">
-        <v>600</v>
-      </c>
-      <c r="E35" s="15">
-        <f t="shared" ref="E35:E39" si="3">SUM(C35+D35)*5%</f>
-        <v>58</v>
-      </c>
-      <c r="F35" s="15">
-        <f>SUM(C35+D35)*10%</f>
-        <v>116</v>
-      </c>
-      <c r="G35" s="15">
-        <f t="shared" ref="G35:G39" si="4">SUM(C35:F35)*25%</f>
-        <v>333.5</v>
-      </c>
-      <c r="H35" s="16">
-        <f>SUM(C35:G35)</f>
-        <v>1667.5</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="14">
-        <v>1</v>
-      </c>
-      <c r="K35" s="15">
-        <f t="shared" ref="K35:K39" si="5">J35*H35</f>
-        <v>1667.5</v>
-      </c>
-      <c r="M35" s="7">
-        <v>2390</v>
-      </c>
-      <c r="N35" s="7">
-        <f>M35/5</f>
-        <v>478</v>
-      </c>
-      <c r="O35" s="18">
-        <f>N35*1.18</f>
-        <v>564.04</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="15">
-        <v>610</v>
-      </c>
-      <c r="D36" s="15">
-        <v>650</v>
-      </c>
-      <c r="E36" s="15">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="F36" s="15">
-        <f t="shared" ref="F36:F39" si="6">SUM(C36+D36)*10%</f>
-        <v>126</v>
-      </c>
-      <c r="G36" s="15">
-        <f t="shared" si="4"/>
-        <v>362.25</v>
-      </c>
-      <c r="H36" s="16">
-        <f t="shared" ref="H36:H39" si="7">SUM(C36:G36)</f>
-        <v>1811.25</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="14">
-        <v>1</v>
-      </c>
-      <c r="K36" s="15">
-        <f t="shared" si="5"/>
-        <v>1811.25</v>
-      </c>
-      <c r="M36" s="7">
-        <v>2725</v>
-      </c>
-      <c r="N36" s="7">
-        <f>M36/5</f>
-        <v>545</v>
-      </c>
-      <c r="O36" s="18">
-        <f>N36*1.18</f>
-        <v>643.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="15">
-        <v>665</v>
-      </c>
-      <c r="D37" s="15">
-        <v>700</v>
-      </c>
-      <c r="E37" s="15">
-        <f t="shared" si="3"/>
-        <v>68.25</v>
-      </c>
-      <c r="F37" s="15">
-        <f t="shared" si="6"/>
-        <v>136.5</v>
-      </c>
-      <c r="G37" s="15">
-        <f t="shared" si="4"/>
-        <v>392.4375</v>
-      </c>
-      <c r="H37" s="16">
-        <f t="shared" si="7"/>
-        <v>1962.1875</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="14">
-        <v>1</v>
-      </c>
-      <c r="K37" s="15">
-        <f t="shared" si="5"/>
-        <v>1962.1875</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2975</v>
-      </c>
-      <c r="N37" s="7">
-        <f>M37/5</f>
-        <v>595</v>
-      </c>
-      <c r="O37" s="18">
-        <f>N37*1.18</f>
-        <v>702.09999999999991</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="15">
-        <v>690</v>
-      </c>
-      <c r="D38" s="15">
-        <v>725</v>
+        <v>100.04</v>
       </c>
       <c r="E38" s="15">
         <f t="shared" si="3"/>
-        <v>70.75</v>
+        <v>200.08</v>
       </c>
       <c r="F38" s="15">
-        <f t="shared" si="6"/>
-        <v>141.5</v>
-      </c>
-      <c r="G38" s="15">
+        <f>SUM(C38:E38)*25%</f>
+        <v>575.23</v>
+      </c>
+      <c r="G38" s="16">
+        <f>SUM(C38:F38)</f>
+        <v>2876.15</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1</v>
+      </c>
+      <c r="J38" s="15">
         <f t="shared" si="4"/>
-        <v>406.8125</v>
-      </c>
-      <c r="H38" s="16">
-        <f t="shared" si="7"/>
-        <v>2034.0625</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="14">
-        <v>1</v>
-      </c>
-      <c r="K38" s="15">
-        <f t="shared" si="5"/>
-        <v>2034.0625</v>
+        <v>2876.15</v>
+      </c>
+      <c r="L38" s="7">
+        <v>610</v>
       </c>
       <c r="M38" s="7">
-        <v>3350</v>
-      </c>
-      <c r="N38" s="7">
-        <f>M38/5</f>
-        <v>670</v>
+        <f>L38*3.28</f>
+        <v>2000.8</v>
+      </c>
+      <c r="N38" s="18">
+        <f>M38*1.18</f>
+        <v>2360.944</v>
       </c>
       <c r="O38" s="18">
-        <f>N38*1.18</f>
-        <v>790.59999999999991</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O38:O41" si="5">N38*3.28</f>
+        <v>7743.8963199999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C39" s="15">
-        <v>785</v>
+        <v>2181.1999999999998</v>
       </c>
       <c r="D39" s="15">
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>109.06</v>
       </c>
       <c r="E39" s="15">
         <f t="shared" si="3"/>
-        <v>76.75</v>
+        <v>218.12</v>
       </c>
       <c r="F39" s="15">
-        <f t="shared" si="6"/>
-        <v>153.5</v>
-      </c>
-      <c r="G39" s="15">
+        <f>SUM(C39:E39)*25%</f>
+        <v>627.09499999999991</v>
+      </c>
+      <c r="G39" s="16">
+        <f>SUM(C39:F39)</f>
+        <v>3135.4749999999995</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1</v>
+      </c>
+      <c r="J39" s="15">
         <f t="shared" si="4"/>
-        <v>441.3125</v>
-      </c>
-      <c r="H39" s="16">
-        <f t="shared" si="7"/>
-        <v>2206.5625</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="14">
-        <v>1</v>
-      </c>
-      <c r="K39" s="15">
+        <v>3135.4749999999995</v>
+      </c>
+      <c r="L39" s="7">
+        <v>665</v>
+      </c>
+      <c r="M39" s="7">
+        <f>L39*3.28</f>
+        <v>2181.1999999999998</v>
+      </c>
+      <c r="N39" s="18">
+        <f>M39*1.18</f>
+        <v>2573.8159999999998</v>
+      </c>
+      <c r="O39" s="18">
         <f t="shared" si="5"/>
-        <v>2206.5625</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3800</v>
-      </c>
-      <c r="N39" s="7">
-        <f>M39/5</f>
-        <v>760</v>
-      </c>
-      <c r="O39" s="18">
-        <f>N39*1.18</f>
-        <v>896.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
+        <v>8442.1164799999988</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="15">
+        <v>2263.1999999999998</v>
+      </c>
+      <c r="D40" s="15">
+        <f t="shared" si="2"/>
+        <v>113.16</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="3"/>
+        <v>226.32</v>
+      </c>
+      <c r="F40" s="15">
+        <f>SUM(C40:E40)*25%</f>
+        <v>650.66999999999996</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(C40:F40)</f>
+        <v>3253.35</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="14">
+        <v>70</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="4"/>
+        <v>227734.5</v>
+      </c>
+      <c r="L40" s="7">
+        <v>690</v>
+      </c>
+      <c r="M40" s="7">
+        <f>L40*3.28</f>
+        <v>2263.1999999999998</v>
+      </c>
+      <c r="N40" s="18">
+        <f>M40*1.18</f>
+        <v>2670.5759999999996</v>
+      </c>
+      <c r="O40" s="18">
+        <f t="shared" si="5"/>
+        <v>8759.489279999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="15">
+        <v>2574.7999999999997</v>
+      </c>
+      <c r="D41" s="15">
+        <f t="shared" si="2"/>
+        <v>128.73999999999998</v>
+      </c>
+      <c r="E41" s="15">
+        <f t="shared" si="3"/>
+        <v>257.47999999999996</v>
+      </c>
+      <c r="F41" s="15">
+        <f>SUM(C41:E41)*25%</f>
+        <v>740.25499999999988</v>
+      </c>
+      <c r="G41" s="16">
+        <f>SUM(C41:F41)</f>
+        <v>3701.2749999999996</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="14">
+        <v>15</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" si="4"/>
+        <v>55519.124999999993</v>
+      </c>
+      <c r="L41" s="7">
+        <v>785</v>
+      </c>
+      <c r="M41" s="7">
+        <f>L41*3.28</f>
+        <v>2574.7999999999997</v>
+      </c>
+      <c r="N41" s="18">
+        <f>M41*1.18</f>
+        <v>3038.2639999999997</v>
+      </c>
+      <c r="O41" s="18">
+        <f t="shared" si="5"/>
+        <v>9965.5059199999978</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
+      <c r="B42" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40">
+        <f>SUM(J37:J41)</f>
+        <v>302467.25</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
-        <v>24</v>
-      </c>
+    <row r="44" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
       <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>22</v>
+      </c>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:15" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="22"/>
-    </row>
-    <row r="48" spans="1:15" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="22"/>
-      <c r="M48" s="18"/>
-    </row>
-    <row r="49" spans="1:13" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
+    <row r="47" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="32"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
@@ -1661,24 +1714,50 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="22"/>
-      <c r="M49" s="18"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M52" s="8"/>
+      <c r="J49" s="22"/>
+    </row>
+    <row r="50" spans="1:12" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="22"/>
+      <c r="L50" s="18"/>
+    </row>
+    <row r="51" spans="1:12" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="22"/>
+      <c r="L51" s="18"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B42:I42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>
